--- a/financeiro.xlsx
+++ b/financeiro.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9630" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10920" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Investimentos Fixos" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="154">
   <si>
     <t>Investimentos Fixos (Empresa de criação de web site e aplicativos para Área de Educação)</t>
   </si>
@@ -510,6 +510,32 @@
   <si>
     <t>O Brasil possui mais de 48,5 milhões de jovens (entre 15 e 29 anos)</t>
   </si>
+  <si>
+    <t>https://www.frm.org.br/conteudo/educacao-basica/noticia/qedu-juventudes-e-trabalho-novos-dados-permitem-retrato-atualizado</t>
+  </si>
+  <si>
+    <r>
+      <t>61,3% da Geração Z</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF001D35"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: (16-30 anos) se considera gamer</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.pesquisagamebrasil.com.br/</t>
+  </si>
+  <si>
+    <t>https://datafolha.folha.uol.com.br/opiniao-e-sociedade/2024/09/7-dos-brasileiros-avaliam-sua-saude-mental-como-ruim-ou-pessima.shtml</t>
+  </si>
+  <si>
+    <t>8 em cada 10 jovens (15 a 29 anos) tiveram algum problema de saúde mental recentemente</t>
+  </si>
 </sst>
 </file>
 
@@ -522,7 +548,7 @@
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -631,6 +657,25 @@
     <font>
       <sz val="12"/>
       <color rgb="FF545D7E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF001D35"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF001D35"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1554,7 +1599,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="186">
+  <cellXfs count="189">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1893,6 +1938,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1924,15 +1972,8 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="12" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1942,15 +1983,22 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="12" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -2002,7 +2050,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2058,7 +2105,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -2083,9 +2129,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-ACB6-4626-B356-C1992438562D}"/>
                 </c:ext>
@@ -2093,7 +2137,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -2118,9 +2161,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-ACB6-4626-B356-C1992438562D}"/>
                 </c:ext>
@@ -2128,7 +2169,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -2153,9 +2193,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-ACB6-4626-B356-C1992438562D}"/>
                 </c:ext>
@@ -2233,7 +2271,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -2301,7 +2338,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2343,7 +2379,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -2368,9 +2403,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-A93F-482C-B870-9BF829E3DAC0}"/>
                 </c:ext>
@@ -2378,7 +2411,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -2403,9 +2435,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-A93F-482C-B870-9BF829E3DAC0}"/>
                 </c:ext>
@@ -2477,7 +2507,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -2796,18 +2825,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="21">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="161" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="155"/>
-      <c r="C1" s="155"/>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="155"/>
-      <c r="H1" s="155"/>
-      <c r="I1" s="155"/>
-      <c r="J1" s="159"/>
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="158"/>
+      <c r="J1" s="162"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -2855,19 +2884,19 @@
     </row>
     <row r="3" spans="1:26" ht="21">
       <c r="A3" s="1"/>
-      <c r="B3" s="157" t="s">
+      <c r="B3" s="160" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="155"/>
-      <c r="D3" s="155"/>
-      <c r="E3" s="159"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="162"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="157" t="s">
+      <c r="G3" s="160" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="155"/>
-      <c r="I3" s="155"/>
-      <c r="J3" s="159"/>
+      <c r="H3" s="158"/>
+      <c r="I3" s="158"/>
+      <c r="J3" s="162"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -2971,7 +3000,7 @@
     </row>
     <row r="6" spans="1:26">
       <c r="A6" s="1"/>
-      <c r="B6" s="183" t="s">
+      <c r="B6" s="154" t="s">
         <v>139</v>
       </c>
       <c r="C6" s="8">
@@ -2993,7 +3022,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="1"/>
-      <c r="L6" s="184" t="s">
+      <c r="L6" s="155" t="s">
         <v>142</v>
       </c>
       <c r="M6" s="1"/>
@@ -3145,11 +3174,11 @@
       <c r="D11" s="9"/>
       <c r="E11" s="10"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="160" t="s">
+      <c r="G11" s="163" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="161"/>
-      <c r="I11" s="162"/>
+      <c r="H11" s="164"/>
+      <c r="I11" s="165"/>
       <c r="J11" s="20">
         <f>SUM(J5:J10)</f>
         <v>0</v>
@@ -3173,11 +3202,11 @@
     </row>
     <row r="12" spans="1:26" ht="21">
       <c r="A12" s="1"/>
-      <c r="B12" s="160" t="s">
+      <c r="B12" s="163" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="161"/>
-      <c r="D12" s="162"/>
+      <c r="C12" s="164"/>
+      <c r="D12" s="165"/>
       <c r="E12" s="21">
         <f>SUM(E5:E11)</f>
         <v>15744.38</v>
@@ -3211,11 +3240,11 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="154" t="s">
+      <c r="G13" s="157" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="155"/>
-      <c r="I13" s="156"/>
+      <c r="H13" s="158"/>
+      <c r="I13" s="159"/>
       <c r="J13" s="22"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -3305,11 +3334,11 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="157" t="s">
+      <c r="G16" s="160" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="155"/>
-      <c r="I16" s="156"/>
+      <c r="H16" s="158"/>
+      <c r="I16" s="159"/>
       <c r="J16" s="28">
         <f>SUM(J15)</f>
         <v>0</v>
@@ -3394,11 +3423,11 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="157" t="s">
+      <c r="G19" s="160" t="s">
         <v>8</v>
       </c>
-      <c r="H19" s="155"/>
-      <c r="I19" s="156"/>
+      <c r="H19" s="158"/>
+      <c r="I19" s="159"/>
       <c r="J19" s="29">
         <f>E12+J11+J16+E19</f>
         <v>15744.38</v>
@@ -31040,12 +31069,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21">
-      <c r="A1" s="157" t="s">
+      <c r="A1" s="160" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="155"/>
-      <c r="C1" s="155"/>
-      <c r="D1" s="159"/>
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="162"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="30" t="s">
@@ -31109,11 +31138,11 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="21">
-      <c r="A6" s="157" t="s">
+      <c r="A6" s="160" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="155"/>
-      <c r="C6" s="156"/>
+      <c r="B6" s="158"/>
+      <c r="C6" s="159"/>
       <c r="D6" s="42">
         <f>SUM(D4:D5)</f>
         <v>179090.06333333332</v>
@@ -32134,10 +32163,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21">
-      <c r="A1" s="157" t="s">
+      <c r="A1" s="160" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="163"/>
+      <c r="B1" s="166"/>
       <c r="C1" s="43"/>
       <c r="D1" s="43"/>
       <c r="E1" s="43"/>
@@ -32148,10 +32177,10 @@
       <c r="J1" s="44"/>
     </row>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="157" t="s">
+      <c r="A2" s="160" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="156"/>
+      <c r="B2" s="159"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="23" t="s">
@@ -33225,11 +33254,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21">
-      <c r="A1" s="157" t="s">
+      <c r="A1" s="160" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="155"/>
-      <c r="C1" s="156"/>
+      <c r="B1" s="158"/>
+      <c r="C1" s="159"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="53" t="s">
@@ -34284,8 +34313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -34298,16 +34327,16 @@
     <col min="6" max="6" width="73.42578125" customWidth="1"/>
     <col min="7" max="7" width="35" customWidth="1"/>
     <col min="8" max="8" width="30" customWidth="1"/>
-    <col min="9" max="9" width="70.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="95.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="21">
-      <c r="A1" s="157" t="s">
+      <c r="A1" s="160" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="155"/>
-      <c r="C1" s="156"/>
+      <c r="B1" s="158"/>
+      <c r="C1" s="159"/>
       <c r="D1" s="22"/>
       <c r="E1" s="62"/>
     </row>
@@ -34404,15 +34433,17 @@
       <c r="F5" s="71" t="s">
         <v>144</v>
       </c>
-      <c r="G5" s="68">
-        <f>1891609*3</f>
-        <v>5674827</v>
+      <c r="G5" s="188">
+        <v>48500000</v>
       </c>
-      <c r="I5" s="185" t="s">
+      <c r="I5" s="156" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="6" spans="1:26">
+      <c r="J5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="15.75">
       <c r="A6" s="7" t="s">
         <v>36</v>
       </c>
@@ -34432,11 +34463,16 @@
         <v>146</v>
       </c>
       <c r="G6" s="68">
-        <f>218671+174505</f>
-        <v>393176</v>
+        <v>29730500</v>
       </c>
-    </row>
-    <row r="7" spans="1:26">
+      <c r="I6" s="186" t="s">
+        <v>150</v>
+      </c>
+      <c r="J6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="15.75">
       <c r="A7" s="7" t="s">
         <v>37</v>
       </c>
@@ -34455,7 +34491,13 @@
         <v>147</v>
       </c>
       <c r="G7" s="72">
-        <v>174505</v>
+        <v>23784400</v>
+      </c>
+      <c r="I7" s="187" t="s">
+        <v>153</v>
+      </c>
+      <c r="J7" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -34478,7 +34520,7 @@
       </c>
       <c r="G8" s="68">
         <f>G7</f>
-        <v>174505</v>
+        <v>23784400</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="27" customHeight="1">
@@ -34501,15 +34543,15 @@
       </c>
       <c r="G9" s="78">
         <f>G8*0.01</f>
-        <v>1745.05</v>
+        <v>237844</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="21">
-      <c r="A10" s="157" t="s">
+      <c r="A10" s="160" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="155"/>
-      <c r="C10" s="156"/>
+      <c r="B10" s="158"/>
+      <c r="C10" s="159"/>
       <c r="D10" s="51">
         <f>SUM(D3:D9)</f>
         <v>97100</v>
@@ -34544,7 +34586,7 @@
       </c>
       <c r="G12" s="68">
         <f>G5*1000</f>
-        <v>5674827000</v>
+        <v>48500000000</v>
       </c>
       <c r="H12" s="65"/>
       <c r="I12" s="65"/>
@@ -34585,7 +34627,7 @@
       </c>
       <c r="G13" s="68">
         <f>G7*20000</f>
-        <v>3490100000</v>
+        <v>475688000000</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -34617,7 +34659,7 @@
       </c>
       <c r="G15" s="68">
         <f>SUM(G12:G14)</f>
-        <v>9167927000</v>
+        <v>524191000000</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -34634,7 +34676,7 @@
       </c>
       <c r="G16" s="68">
         <f>G15*0.005</f>
-        <v>45839635</v>
+        <v>2620955000</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -34650,11 +34692,11 @@
       <c r="G17" s="72"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="167" t="s">
+      <c r="A18" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="168"/>
-      <c r="C18" s="169"/>
+      <c r="B18" s="171"/>
+      <c r="C18" s="172"/>
       <c r="D18" s="42" t="str">
         <f ca="1">SUM(D14:D19)</f>
         <v>#REF!</v>
@@ -34752,11 +34794,11 @@
       <c r="G27" s="84"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A28" s="167" t="s">
+      <c r="A28" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="168"/>
-      <c r="C28" s="169"/>
+      <c r="B28" s="171"/>
+      <c r="C28" s="172"/>
       <c r="D28" s="42">
         <f>SUM(D22:D27)</f>
         <v>0</v>
@@ -34825,9 +34867,9 @@
       <c r="E33" s="62"/>
     </row>
     <row r="34" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A34" s="167"/>
-      <c r="B34" s="168"/>
-      <c r="C34" s="169"/>
+      <c r="A34" s="170"/>
+      <c r="B34" s="171"/>
+      <c r="C34" s="172"/>
       <c r="D34" s="51">
         <f>SUM(D32:D33)</f>
         <v>10491</v>
@@ -34923,9 +34965,9 @@
       <c r="E51" s="62"/>
     </row>
     <row r="52" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A52" s="164"/>
-      <c r="B52" s="165"/>
-      <c r="C52" s="166"/>
+      <c r="A52" s="167"/>
+      <c r="B52" s="168"/>
+      <c r="C52" s="169"/>
       <c r="D52" s="95"/>
       <c r="E52" s="62"/>
     </row>
@@ -37810,16 +37852,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21">
-      <c r="A1" s="157" t="s">
+      <c r="A1" s="160" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="155"/>
-      <c r="C1" s="155"/>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="155"/>
-      <c r="H1" s="156"/>
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="159"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" customHeight="1">
@@ -37910,15 +37952,15 @@
       <c r="I4" s="62"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A5" s="157" t="s">
+      <c r="A5" s="160" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="155"/>
-      <c r="C5" s="155"/>
-      <c r="D5" s="155"/>
-      <c r="E5" s="155"/>
-      <c r="F5" s="155"/>
-      <c r="G5" s="163"/>
+      <c r="B5" s="158"/>
+      <c r="C5" s="158"/>
+      <c r="D5" s="158"/>
+      <c r="E5" s="158"/>
+      <c r="F5" s="158"/>
+      <c r="G5" s="166"/>
       <c r="H5" s="51">
         <f>SUM(H3:H4)</f>
         <v>12300</v>
@@ -37937,16 +37979,16 @@
       <c r="I6" s="62"/>
     </row>
     <row r="7" spans="1:9" ht="21">
-      <c r="A7" s="157" t="s">
+      <c r="A7" s="160" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="155"/>
-      <c r="C7" s="155"/>
-      <c r="D7" s="155"/>
-      <c r="E7" s="155"/>
-      <c r="F7" s="155"/>
-      <c r="G7" s="155"/>
-      <c r="H7" s="156"/>
+      <c r="B7" s="158"/>
+      <c r="C7" s="158"/>
+      <c r="D7" s="158"/>
+      <c r="E7" s="158"/>
+      <c r="F7" s="158"/>
+      <c r="G7" s="158"/>
+      <c r="H7" s="159"/>
       <c r="I7" s="62"/>
     </row>
     <row r="8" spans="1:9">
@@ -38144,14 +38186,14 @@
       <c r="I19" s="62"/>
     </row>
     <row r="20" spans="1:9" ht="21">
-      <c r="A20" s="157" t="s">
+      <c r="A20" s="160" t="s">
         <v>81</v>
       </c>
-      <c r="B20" s="155"/>
-      <c r="C20" s="155"/>
-      <c r="D20" s="155"/>
-      <c r="E20" s="155"/>
-      <c r="F20" s="163"/>
+      <c r="B20" s="158"/>
+      <c r="C20" s="158"/>
+      <c r="D20" s="158"/>
+      <c r="E20" s="158"/>
+      <c r="F20" s="166"/>
       <c r="G20" s="109">
         <f>SUM(G9:G19)</f>
         <v>437.3438888888889</v>
@@ -38165,14 +38207,14 @@
       <c r="I22" s="62"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A23" s="157" t="s">
+      <c r="A23" s="160" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="163"/>
-      <c r="D23" s="170" t="s">
+      <c r="B23" s="166"/>
+      <c r="D23" s="173" t="s">
         <v>83</v>
       </c>
-      <c r="E23" s="166"/>
+      <c r="E23" s="169"/>
       <c r="I23" s="62"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1">
@@ -41260,12 +41302,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21">
-      <c r="A1" s="157" t="s">
+      <c r="A1" s="160" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="155"/>
-      <c r="C1" s="155"/>
-      <c r="D1" s="163"/>
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="166"/>
     </row>
     <row r="2" spans="1:8" ht="21">
       <c r="A2" s="2" t="s">
@@ -41283,11 +41325,11 @@
       <c r="F2" s="115" t="s">
         <v>105</v>
       </c>
-      <c r="G2" s="171">
+      <c r="G2" s="183">
         <f>C3</f>
         <v>97100</v>
       </c>
-      <c r="H2" s="169"/>
+      <c r="H2" s="172"/>
     </row>
     <row r="3" spans="1:8" ht="21">
       <c r="A3" s="116" t="s">
@@ -41318,7 +41360,7 @@
       <c r="B4" s="122" t="s">
         <v>109</v>
       </c>
-      <c r="C4" s="172">
+      <c r="C4" s="184">
         <f>FaturamentoXCustos!D28</f>
         <v>0</v>
       </c>
@@ -41341,7 +41383,7 @@
       <c r="B5" s="71" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="173"/>
+      <c r="C5" s="185"/>
       <c r="D5" s="125"/>
       <c r="E5" s="126"/>
       <c r="F5" s="115" t="s">
@@ -41424,30 +41466,30 @@
       <c r="F12" s="144"/>
     </row>
     <row r="13" spans="1:8" ht="21">
-      <c r="A13" s="174" t="s">
+      <c r="A13" s="181" t="s">
         <v>122</v>
       </c>
-      <c r="B13" s="155"/>
-      <c r="C13" s="155"/>
-      <c r="D13" s="159"/>
+      <c r="B13" s="158"/>
+      <c r="C13" s="158"/>
+      <c r="D13" s="162"/>
       <c r="F13" s="144"/>
     </row>
     <row r="14" spans="1:8" ht="21">
       <c r="A14" s="175" t="s">
         <v>123</v>
       </c>
-      <c r="B14" s="155"/>
-      <c r="C14" s="155"/>
-      <c r="D14" s="159"/>
+      <c r="B14" s="158"/>
+      <c r="C14" s="158"/>
+      <c r="D14" s="162"/>
       <c r="F14" s="144"/>
     </row>
     <row r="15" spans="1:8" ht="21">
       <c r="A15" s="175" t="s">
         <v>124</v>
       </c>
-      <c r="B15" s="155"/>
-      <c r="C15" s="155"/>
-      <c r="D15" s="159"/>
+      <c r="B15" s="158"/>
+      <c r="C15" s="158"/>
+      <c r="D15" s="162"/>
       <c r="F15" s="144"/>
     </row>
     <row r="16" spans="1:8" ht="21">
@@ -41482,29 +41524,29 @@
       <c r="F18" s="79"/>
     </row>
     <row r="19" spans="1:6" ht="34.5" customHeight="1">
-      <c r="A19" s="179" t="s">
+      <c r="A19" s="174" t="s">
         <v>128</v>
       </c>
-      <c r="B19" s="155"/>
-      <c r="C19" s="155"/>
-      <c r="D19" s="159"/>
+      <c r="B19" s="158"/>
+      <c r="C19" s="158"/>
+      <c r="D19" s="162"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1"/>
     <row r="22" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A22" s="174" t="s">
+      <c r="A22" s="181" t="s">
         <v>108</v>
       </c>
-      <c r="B22" s="155"/>
-      <c r="C22" s="155"/>
-      <c r="D22" s="159"/>
+      <c r="B22" s="158"/>
+      <c r="C22" s="158"/>
+      <c r="D22" s="162"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1">
       <c r="A23" s="175" t="s">
         <v>129</v>
       </c>
-      <c r="B23" s="155"/>
-      <c r="C23" s="155"/>
-      <c r="D23" s="159"/>
+      <c r="B23" s="158"/>
+      <c r="C23" s="158"/>
+      <c r="D23" s="162"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1">
       <c r="A24" s="176" t="s">
@@ -41522,34 +41564,34 @@
         <f>C10/C3</f>
         <v>0.69260201968188573</v>
       </c>
-      <c r="C25" s="180"/>
-      <c r="D25" s="181"/>
+      <c r="C25" s="179"/>
+      <c r="D25" s="180"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A26" s="179" t="s">
+      <c r="A26" s="174" t="s">
         <v>131</v>
       </c>
-      <c r="B26" s="155"/>
-      <c r="C26" s="155"/>
-      <c r="D26" s="159"/>
+      <c r="B26" s="158"/>
+      <c r="C26" s="158"/>
+      <c r="D26" s="162"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1"/>
     <row r="28" spans="1:6" ht="15.75" customHeight="1"/>
     <row r="29" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A29" s="174" t="s">
+      <c r="A29" s="181" t="s">
         <v>110</v>
       </c>
-      <c r="B29" s="155"/>
-      <c r="C29" s="155"/>
-      <c r="D29" s="159"/>
+      <c r="B29" s="158"/>
+      <c r="C29" s="158"/>
+      <c r="D29" s="162"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1">
       <c r="A30" s="175" t="s">
         <v>132</v>
       </c>
-      <c r="B30" s="155"/>
-      <c r="C30" s="155"/>
-      <c r="D30" s="159"/>
+      <c r="B30" s="158"/>
+      <c r="C30" s="158"/>
+      <c r="D30" s="162"/>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1">
       <c r="A31" s="176" t="s">
@@ -41567,33 +41609,33 @@
         <f>C10/'Investimento Total'!B6</f>
         <v>0.34517334286758183</v>
       </c>
-      <c r="C32" s="180"/>
-      <c r="D32" s="181"/>
+      <c r="C32" s="179"/>
+      <c r="D32" s="180"/>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A33" s="179" t="s">
+      <c r="A33" s="174" t="s">
         <v>134</v>
       </c>
-      <c r="B33" s="155"/>
-      <c r="C33" s="155"/>
-      <c r="D33" s="159"/>
+      <c r="B33" s="158"/>
+      <c r="C33" s="158"/>
+      <c r="D33" s="162"/>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1"/>
     <row r="35" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A35" s="174" t="s">
+      <c r="A35" s="181" t="s">
         <v>135</v>
       </c>
-      <c r="B35" s="155"/>
-      <c r="C35" s="155"/>
-      <c r="D35" s="159"/>
+      <c r="B35" s="158"/>
+      <c r="C35" s="158"/>
+      <c r="D35" s="162"/>
     </row>
     <row r="36" spans="1:4" ht="15.75" customHeight="1">
       <c r="A36" s="175" t="s">
         <v>136</v>
       </c>
-      <c r="B36" s="155"/>
-      <c r="C36" s="155"/>
-      <c r="D36" s="159"/>
+      <c r="B36" s="158"/>
+      <c r="C36" s="158"/>
+      <c r="D36" s="162"/>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1">
       <c r="A37" s="176" t="s">
@@ -41612,15 +41654,15 @@
         <v>2.8970950992111462</v>
       </c>
       <c r="C38" s="182"/>
-      <c r="D38" s="181"/>
+      <c r="D38" s="180"/>
     </row>
     <row r="39" spans="1:4" ht="33" customHeight="1">
-      <c r="A39" s="179" t="s">
+      <c r="A39" s="174" t="s">
         <v>137</v>
       </c>
-      <c r="B39" s="155"/>
-      <c r="C39" s="155"/>
-      <c r="D39" s="159"/>
+      <c r="B39" s="158"/>
+      <c r="C39" s="158"/>
+      <c r="D39" s="162"/>
     </row>
     <row r="40" spans="1:4" ht="15.75" customHeight="1"/>
     <row r="41" spans="1:4" ht="15.75" customHeight="1"/>
@@ -42585,6 +42627,21 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="C38:D38"/>
     <mergeCell ref="A39:D39"/>
     <mergeCell ref="A30:D30"/>
     <mergeCell ref="A31:D31"/>
@@ -42593,21 +42650,6 @@
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/financeiro.xlsx
+++ b/financeiro.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10920" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9630" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Investimentos Fixos" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="148">
   <si>
     <t>Investimentos Fixos (Empresa de criação de web site e aplicativos para Área de Educação)</t>
   </si>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>R$</t>
-  </si>
-  <si>
-    <t>Marketing Digital para alavancar o projeto</t>
   </si>
   <si>
     <t>Total de Investimentos Pré Operacionais</t>
@@ -160,16 +157,7 @@
     <t>Publico a Atingir (10%) Coletado pela Aceitação na pesquisa de Campo. Na pesquisa 75% dos alunos viram o protótipo e disseram que gostariam de utilizar.</t>
   </si>
   <si>
-    <t xml:space="preserve">Escolas  </t>
-  </si>
-  <si>
-    <t>Nº de alunos nas instituições</t>
-  </si>
-  <si>
     <t>9- Estimativa dos Custos Variáveis</t>
-  </si>
-  <si>
-    <t>FATECS</t>
   </si>
   <si>
     <t>Matéria-Prima</t>
@@ -182,15 +170,6 @@
   </si>
   <si>
     <t xml:space="preserve">Preço Total </t>
-  </si>
-  <si>
-    <t>Universidades particulares</t>
-  </si>
-  <si>
-    <t>Universidades públicas</t>
-  </si>
-  <si>
-    <t>Publico a Atingir (0,5%)</t>
   </si>
   <si>
     <t>10 - Apuração do custo de Matéria-Prima e Mercadorias Vendidas</t>
@@ -322,40 +301,10 @@
     <t>Variáveis</t>
   </si>
   <si>
-    <t>Condominio</t>
-  </si>
-  <si>
     <t>Fixos</t>
   </si>
   <si>
-    <t>IPTU</t>
-  </si>
-  <si>
-    <t>Água</t>
-  </si>
-  <si>
-    <t>Energia Elétrica</t>
-  </si>
-  <si>
-    <t>Telefone</t>
-  </si>
-  <si>
-    <t>Contador</t>
-  </si>
-  <si>
-    <t>Manutenção Equipamentos</t>
-  </si>
-  <si>
     <t>Salários (Planilha 12)</t>
-  </si>
-  <si>
-    <t>Material de Limpeza</t>
-  </si>
-  <si>
-    <t>Material de escritório</t>
-  </si>
-  <si>
-    <t>Uber(Transporte para representação comercial)</t>
   </si>
   <si>
     <t>Hospedagem e dominio</t>
@@ -536,6 +485,59 @@
   <si>
     <t>8 em cada 10 jovens (15 a 29 anos) tiveram algum problema de saúde mental recentemente</t>
   </si>
+  <si>
+    <t>Google Ads</t>
+  </si>
+  <si>
+    <t>Meta Ads</t>
+  </si>
+  <si>
+    <t>Propagandas</t>
+  </si>
+  <si>
+    <t>Custo Por Mês</t>
+  </si>
+  <si>
+    <r>
+      <t>https://</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>support.google.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF5D5D5D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>/google-ads/answer/6320?hl=pt-BR</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.facebook.com/business/help/716340101839585?id=176276233019487</t>
+  </si>
+  <si>
+    <t>Publicidade e propagandas</t>
+  </si>
+  <si>
+    <t>Resultado da publicidade</t>
+  </si>
+  <si>
+    <t>Nº cliques</t>
+  </si>
+  <si>
+    <t>Custo Por Clique</t>
+  </si>
+  <si>
+    <t>Nº de leads</t>
+  </si>
 </sst>
 </file>
 
@@ -548,7 +550,7 @@
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -679,8 +681,34 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF5D5D5D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -757,6 +785,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
         <bgColor rgb="FF00B0F0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FF1F497D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFF3300"/>
       </patternFill>
     </fill>
   </fills>
@@ -1599,7 +1639,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="189">
+  <cellXfs count="196">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1941,6 +1981,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1972,8 +2015,15 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="3" fillId="12" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1983,22 +2033,27 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="12" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="15" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -2050,6 +2105,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2105,6 +2161,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -2129,7 +2186,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-ACB6-4626-B356-C1992438562D}"/>
                 </c:ext>
@@ -2137,6 +2196,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -2161,7 +2221,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-ACB6-4626-B356-C1992438562D}"/>
                 </c:ext>
@@ -2169,6 +2231,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -2193,7 +2256,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-ACB6-4626-B356-C1992438562D}"/>
                 </c:ext>
@@ -2243,7 +2308,7 @@
                   <c:v>15744.38</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>179090.06333333332</c:v>
+                  <c:v>186770.06333333332</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2271,6 +2336,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -2338,6 +2404,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2379,6 +2446,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -2403,7 +2471,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-A93F-482C-B870-9BF829E3DAC0}"/>
                 </c:ext>
@@ -2411,6 +2481,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -2435,7 +2506,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-A93F-482C-B870-9BF829E3DAC0}"/>
                 </c:ext>
@@ -2482,7 +2555,7 @@
                   <c:v>10491</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19357.343888888889</c:v>
+                  <c:v>20637.343888888889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2507,6 +2580,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -2825,18 +2899,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="21">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="158"/>
-      <c r="C1" s="158"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="158"/>
-      <c r="F1" s="158"/>
-      <c r="G1" s="158"/>
-      <c r="H1" s="158"/>
-      <c r="I1" s="158"/>
-      <c r="J1" s="162"/>
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
+      <c r="I1" s="161"/>
+      <c r="J1" s="165"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -2884,19 +2958,19 @@
     </row>
     <row r="3" spans="1:26" ht="21">
       <c r="A3" s="1"/>
-      <c r="B3" s="160" t="s">
+      <c r="B3" s="163" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="162"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="165"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="160" t="s">
+      <c r="G3" s="163" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="158"/>
-      <c r="I3" s="158"/>
-      <c r="J3" s="162"/>
+      <c r="H3" s="161"/>
+      <c r="I3" s="161"/>
+      <c r="J3" s="165"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -2959,7 +3033,7 @@
     <row r="5" spans="1:26">
       <c r="A5" s="1"/>
       <c r="B5" s="7" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="C5" s="8">
         <v>1</v>
@@ -2981,7 +3055,7 @@
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -3001,7 +3075,7 @@
     <row r="6" spans="1:26">
       <c r="A6" s="1"/>
       <c r="B6" s="154" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="C6" s="8">
         <v>1</v>
@@ -3023,7 +3097,7 @@
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="155" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -3043,7 +3117,7 @@
     <row r="7" spans="1:26">
       <c r="A7" s="1"/>
       <c r="B7" s="8" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="C7" s="8">
         <v>1</v>
@@ -3174,11 +3248,11 @@
       <c r="D11" s="9"/>
       <c r="E11" s="10"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="163" t="s">
+      <c r="G11" s="166" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="164"/>
-      <c r="I11" s="165"/>
+      <c r="H11" s="167"/>
+      <c r="I11" s="168"/>
       <c r="J11" s="20">
         <f>SUM(J5:J10)</f>
         <v>0</v>
@@ -3202,11 +3276,11 @@
     </row>
     <row r="12" spans="1:26" ht="21">
       <c r="A12" s="1"/>
-      <c r="B12" s="163" t="s">
+      <c r="B12" s="166" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="164"/>
-      <c r="D12" s="165"/>
+      <c r="C12" s="167"/>
+      <c r="D12" s="168"/>
       <c r="E12" s="21">
         <f>SUM(E5:E11)</f>
         <v>15744.38</v>
@@ -3240,11 +3314,11 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="157" t="s">
+      <c r="G13" s="160" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="158"/>
-      <c r="I13" s="159"/>
+      <c r="H13" s="161"/>
+      <c r="I13" s="162"/>
       <c r="J13" s="22"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -3334,11 +3408,11 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="160" t="s">
+      <c r="G16" s="163" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="158"/>
-      <c r="I16" s="159"/>
+      <c r="H16" s="161"/>
+      <c r="I16" s="162"/>
       <c r="J16" s="28">
         <f>SUM(J15)</f>
         <v>0</v>
@@ -3423,11 +3497,11 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="160" t="s">
+      <c r="G19" s="163" t="s">
         <v>8</v>
       </c>
-      <c r="H19" s="158"/>
-      <c r="I19" s="159"/>
+      <c r="H19" s="161"/>
+      <c r="I19" s="162"/>
       <c r="J19" s="29">
         <f>E12+J11+J16+E19</f>
         <v>15744.38</v>
@@ -31069,12 +31143,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="163" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="158"/>
-      <c r="C1" s="158"/>
-      <c r="D1" s="162"/>
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="165"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="30" t="s">
@@ -31127,25 +31201,25 @@
       </c>
       <c r="B5" s="40">
         <f>('cont... custos'!B41)</f>
-        <v>19357.343888888889</v>
+        <v>20637.343888888889</v>
       </c>
       <c r="C5" s="41">
         <v>6</v>
       </c>
       <c r="D5" s="10">
         <f t="shared" si="0"/>
-        <v>116144.06333333332</v>
+        <v>123824.06333333332</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21">
-      <c r="A6" s="160" t="s">
+      <c r="A6" s="163" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="158"/>
-      <c r="C6" s="159"/>
+      <c r="B6" s="161"/>
+      <c r="C6" s="162"/>
       <c r="D6" s="42">
         <f>SUM(D4:D5)</f>
-        <v>179090.06333333332</v>
+        <v>186770.06333333332</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -32146,7 +32220,7 @@
   <dimension ref="A1:J1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -32163,10 +32237,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="163" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="166"/>
+      <c r="B1" s="169"/>
       <c r="C1" s="43"/>
       <c r="D1" s="43"/>
       <c r="E1" s="43"/>
@@ -32177,10 +32251,10 @@
       <c r="J1" s="44"/>
     </row>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="160" t="s">
+      <c r="A2" s="163" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="159"/>
+      <c r="B2" s="162"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="23" t="s">
@@ -32191,16 +32265,13 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="45" t="s">
-        <v>19</v>
-      </c>
+      <c r="A4" s="45"/>
       <c r="B4" s="46"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="47"/>
       <c r="B5" s="46"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1">
       <c r="A6" s="48"/>
       <c r="B6" s="49"/>
     </row>
@@ -32229,7 +32300,7 @@
     </row>
     <row r="10" spans="1:10" ht="21">
       <c r="A10" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="52">
         <f>B8+F6</f>
@@ -33254,26 +33325,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="163" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="161"/>
+      <c r="C1" s="162"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="158"/>
-      <c r="C1" s="159"/>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="53" t="s">
+      <c r="B2" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="C2" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="54" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="55" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="56">
         <f>'Investimentos Fixos'!J19</f>
@@ -33281,25 +33352,25 @@
       </c>
       <c r="C3" s="57">
         <f>B3/B6</f>
-        <v>8.0809017803200531E-2</v>
+        <v>7.7744479558355117E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="58" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="56">
         <f>'Capital de Giro'!D6</f>
-        <v>179090.06333333332</v>
+        <v>186770.06333333332</v>
       </c>
       <c r="C4" s="57">
         <f>B4/B6</f>
-        <v>0.9191909821967994</v>
+        <v>0.92225552044164483</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="58" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="59">
         <f>'Investimentos Pré-Operacionais'!B10</f>
@@ -33316,7 +33387,7 @@
       </c>
       <c r="B6" s="61">
         <f>SUM(B3:B5)</f>
-        <v>194834.44333333333</v>
+        <v>202514.44333333333</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -34313,8 +34384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -34332,26 +34403,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="21">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="163" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="161"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="62"/>
+    </row>
+    <row r="2" spans="1:26" ht="42.75" customHeight="1">
+      <c r="A2" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="158"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="62"/>
-    </row>
-    <row r="2" spans="1:26" ht="42.75" customHeight="1">
-      <c r="A2" s="63" t="s">
+      <c r="B2" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="C2" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="D2" s="63" t="s">
         <v>31</v>
-      </c>
-      <c r="D2" s="63" t="s">
-        <v>32</v>
       </c>
       <c r="E2" s="64"/>
       <c r="F2" s="65"/>
@@ -34378,7 +34449,7 @@
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="66">
         <v>60000</v>
@@ -34394,7 +34465,7 @@
     </row>
     <row r="4" spans="1:26" ht="18.75">
       <c r="A4" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="68">
         <f>B3*0.1</f>
@@ -34409,15 +34480,15 @@
       </c>
       <c r="E4" s="62"/>
       <c r="F4" s="69" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="G4" s="70" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.75">
       <c r="A5" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" s="68">
         <v>6000</v>
@@ -34431,21 +34502,21 @@
       </c>
       <c r="E5" s="62"/>
       <c r="F5" s="71" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
-      <c r="G5" s="188">
+      <c r="G5" s="159">
         <v>48500000</v>
       </c>
       <c r="I5" s="156" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="J5" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="15.75">
       <c r="A6" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="66">
         <f>B3*0.05</f>
@@ -34460,21 +34531,21 @@
       </c>
       <c r="E6" s="62"/>
       <c r="F6" s="7" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="G6" s="68">
         <v>29730500</v>
       </c>
-      <c r="I6" s="186" t="s">
-        <v>150</v>
+      <c r="I6" s="157" t="s">
+        <v>133</v>
       </c>
       <c r="J6" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15.75">
       <c r="A7" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="68">
         <v>1000</v>
@@ -34488,21 +34559,21 @@
       </c>
       <c r="E7" s="62"/>
       <c r="F7" s="7" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="G7" s="72">
         <v>23784400</v>
       </c>
-      <c r="I7" s="187" t="s">
-        <v>153</v>
+      <c r="I7" s="158" t="s">
+        <v>136</v>
       </c>
       <c r="J7" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:26">
       <c r="A8" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" s="73">
         <v>6000</v>
@@ -34516,7 +34587,7 @@
       </c>
       <c r="E8" s="62"/>
       <c r="F8" s="7" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="G8" s="68">
         <f>G7</f>
@@ -34525,7 +34596,7 @@
     </row>
     <row r="9" spans="1:26" ht="27" customHeight="1">
       <c r="A9" s="76" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" s="73">
         <v>100</v>
@@ -34539,7 +34610,7 @@
       </c>
       <c r="E9" s="62"/>
       <c r="F9" s="77" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G9" s="78">
         <f>G8*0.01</f>
@@ -34547,11 +34618,11 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="21">
-      <c r="A10" s="160" t="s">
+      <c r="A10" s="163" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="158"/>
-      <c r="C10" s="159"/>
+      <c r="B10" s="161"/>
+      <c r="C10" s="162"/>
       <c r="D10" s="51">
         <f>SUM(D3:D9)</f>
         <v>97100</v>
@@ -34566,29 +34637,35 @@
       <c r="C11" s="79"/>
       <c r="D11" s="80"/>
       <c r="E11" s="62"/>
-      <c r="F11" s="69" t="s">
-        <v>41</v>
+      <c r="F11" s="191" t="s">
+        <v>144</v>
       </c>
-      <c r="G11" s="69" t="s">
-        <v>42</v>
+      <c r="G11" s="191" t="s">
+        <v>145</v>
+      </c>
+      <c r="H11" s="191" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="18" customHeight="1">
       <c r="A12" s="81" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B12" s="81"/>
       <c r="C12" s="81"/>
       <c r="D12" s="81"/>
       <c r="E12" s="64"/>
-      <c r="F12" s="71" t="s">
-        <v>44</v>
+      <c r="F12" s="192" t="s">
+        <v>138</v>
       </c>
       <c r="G12" s="68">
-        <f>G5*1000</f>
-        <v>48500000000</v>
+        <f>'cont... custos'!L28/'cont... custos'!L33</f>
+        <v>1200</v>
       </c>
-      <c r="H12" s="65"/>
+      <c r="H12" s="68">
+        <f>H5*1000</f>
+        <v>0</v>
+      </c>
       <c r="I12" s="65"/>
       <c r="J12" s="65"/>
       <c r="K12" s="65"/>
@@ -34610,24 +34687,28 @@
     </row>
     <row r="13" spans="1:26">
       <c r="A13" s="82" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B13" s="82" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C13" s="82" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D13" s="82" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E13" s="62"/>
-      <c r="F13" s="7" t="s">
-        <v>49</v>
+      <c r="F13" s="190" t="s">
+        <v>137</v>
       </c>
       <c r="G13" s="68">
-        <f>G7*20000</f>
-        <v>475688000000</v>
+        <f>'cont... custos'!L27/'cont... custos'!L32</f>
+        <v>600</v>
+      </c>
+      <c r="H13" s="68">
+        <f>H7*20000</f>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -34638,13 +34719,9 @@
         <v>0</v>
       </c>
       <c r="E14" s="62"/>
-      <c r="F14" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G14" s="68">
-        <f>3000000</f>
-        <v>3000000</v>
-      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
     </row>
     <row r="15" spans="1:26">
       <c r="A15" s="7"/>
@@ -34659,7 +34736,11 @@
       </c>
       <c r="G15" s="68">
         <f>SUM(G12:G14)</f>
-        <v>524191000000</v>
+        <v>1800</v>
+      </c>
+      <c r="H15" s="68">
+        <f>SUM(H12:H14)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -34671,13 +34752,8 @@
         <v>0</v>
       </c>
       <c r="E16" s="62"/>
-      <c r="F16" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="G16" s="68">
-        <f>G15*0.005</f>
-        <v>2620955000</v>
-      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="72"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="7"/>
@@ -34688,29 +34764,27 @@
         <v>0</v>
       </c>
       <c r="E17" s="62"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="72"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="85"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="170" t="s">
+      <c r="A18" s="173" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="171"/>
-      <c r="C18" s="172"/>
+      <c r="B18" s="174"/>
+      <c r="C18" s="175"/>
       <c r="D18" s="42" t="str">
         <f ca="1">SUM(D14:D19)</f>
         <v>#REF!</v>
       </c>
       <c r="E18" s="62"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="85"/>
     </row>
     <row r="19" spans="1:8">
       <c r="E19" s="62"/>
     </row>
     <row r="20" spans="1:8" ht="21">
       <c r="A20" s="81" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B20" s="81"/>
       <c r="C20" s="81"/>
@@ -34719,16 +34793,16 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1">
       <c r="A21" s="63" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21" s="86" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C21" s="86" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D21" s="63" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E21" s="62"/>
       <c r="H21" s="72"/>
@@ -34739,6 +34813,8 @@
       <c r="C22" s="87"/>
       <c r="D22" s="17"/>
       <c r="E22" s="62"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="89"/>
       <c r="H22" s="72"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1">
@@ -34747,8 +34823,8 @@
       <c r="C23" s="87"/>
       <c r="D23" s="17"/>
       <c r="E23" s="62"/>
-      <c r="F23" s="88"/>
-      <c r="G23" s="89"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="72"/>
       <c r="H23" s="72"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1">
@@ -34757,8 +34833,8 @@
       <c r="C24" s="87"/>
       <c r="D24" s="17"/>
       <c r="E24" s="62"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="72"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="85"/>
       <c r="H24" s="72"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1">
@@ -34767,8 +34843,8 @@
       <c r="C25" s="87"/>
       <c r="D25" s="17"/>
       <c r="E25" s="62"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="85"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="91"/>
       <c r="H25" s="72"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1">
@@ -34777,8 +34853,8 @@
       <c r="C26" s="87"/>
       <c r="D26" s="17"/>
       <c r="E26" s="62"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="91"/>
+      <c r="F26" s="84"/>
+      <c r="G26" s="84"/>
       <c r="H26" s="72"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1">
@@ -34790,15 +34866,13 @@
         <v>0</v>
       </c>
       <c r="E27" s="62"/>
-      <c r="F27" s="84"/>
-      <c r="G27" s="84"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A28" s="170" t="s">
+      <c r="A28" s="173" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="171"/>
-      <c r="C28" s="172"/>
+      <c r="B28" s="174"/>
+      <c r="C28" s="175"/>
       <c r="D28" s="42">
         <f>SUM(D22:D27)</f>
         <v>0</v>
@@ -34810,7 +34884,7 @@
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1">
       <c r="A30" s="81" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B30" s="81"/>
       <c r="C30" s="81"/>
@@ -34822,19 +34896,19 @@
         <v>3</v>
       </c>
       <c r="B31" s="86" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C31" s="86" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D31" s="63" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E31" s="62"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1">
       <c r="A32" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B32" s="92">
         <v>0.19500000000000001</v>
@@ -34851,7 +34925,7 @@
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1">
       <c r="A33" s="7" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B33" s="92">
         <v>0.05</v>
@@ -34867,9 +34941,9 @@
       <c r="E33" s="62"/>
     </row>
     <row r="34" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A34" s="170"/>
-      <c r="B34" s="171"/>
-      <c r="C34" s="172"/>
+      <c r="A34" s="173"/>
+      <c r="B34" s="174"/>
+      <c r="C34" s="175"/>
       <c r="D34" s="51">
         <f>SUM(D32:D33)</f>
         <v>10491</v>
@@ -34965,9 +35039,9 @@
       <c r="E51" s="62"/>
     </row>
     <row r="52" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A52" s="167"/>
-      <c r="B52" s="168"/>
-      <c r="C52" s="169"/>
+      <c r="A52" s="170"/>
+      <c r="B52" s="171"/>
+      <c r="C52" s="172"/>
       <c r="D52" s="95"/>
       <c r="E52" s="62"/>
     </row>
@@ -37831,10 +37905,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1000"/>
+  <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView topLeftCell="B15" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -37848,43 +37922,46 @@
     <col min="7" max="7" width="20.28515625" customWidth="1"/>
     <col min="8" max="8" width="23" customWidth="1"/>
     <col min="9" max="9" width="2.42578125" customWidth="1"/>
-    <col min="10" max="26" width="8.7109375" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21">
-      <c r="A1" s="160" t="s">
-        <v>62</v>
+      <c r="A1" s="163" t="s">
+        <v>55</v>
       </c>
-      <c r="B1" s="158"/>
-      <c r="C1" s="158"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="158"/>
-      <c r="F1" s="158"/>
-      <c r="G1" s="158"/>
-      <c r="H1" s="159"/>
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="161"/>
+      <c r="H1" s="162"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" customHeight="1">
       <c r="A2" s="63" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B2" s="86" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C2" s="86" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D2" s="63" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E2" s="82" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F2" s="82" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="G2" s="82" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="H2" s="82" t="s">
         <v>6</v>
@@ -37893,7 +37970,7 @@
     </row>
     <row r="3" spans="1:9" ht="16.5" customHeight="1">
       <c r="A3" s="83" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B3" s="83">
         <v>0</v>
@@ -37923,7 +38000,7 @@
     </row>
     <row r="4" spans="1:9" ht="16.5" customHeight="1">
       <c r="A4" s="83" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B4" s="83">
         <v>3</v>
@@ -37952,15 +38029,15 @@
       <c r="I4" s="62"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A5" s="160" t="s">
-        <v>72</v>
+      <c r="A5" s="163" t="s">
+        <v>65</v>
       </c>
-      <c r="B5" s="158"/>
-      <c r="C5" s="158"/>
-      <c r="D5" s="158"/>
-      <c r="E5" s="158"/>
-      <c r="F5" s="158"/>
-      <c r="G5" s="166"/>
+      <c r="B5" s="161"/>
+      <c r="C5" s="161"/>
+      <c r="D5" s="161"/>
+      <c r="E5" s="161"/>
+      <c r="F5" s="161"/>
+      <c r="G5" s="169"/>
       <c r="H5" s="51">
         <f>SUM(H3:H4)</f>
         <v>12300</v>
@@ -37979,39 +38056,39 @@
       <c r="I6" s="62"/>
     </row>
     <row r="7" spans="1:9" ht="21">
-      <c r="A7" s="160" t="s">
-        <v>73</v>
+      <c r="A7" s="163" t="s">
+        <v>66</v>
       </c>
-      <c r="B7" s="158"/>
-      <c r="C7" s="158"/>
-      <c r="D7" s="158"/>
-      <c r="E7" s="158"/>
-      <c r="F7" s="158"/>
-      <c r="G7" s="158"/>
-      <c r="H7" s="159"/>
+      <c r="B7" s="161"/>
+      <c r="C7" s="161"/>
+      <c r="D7" s="161"/>
+      <c r="E7" s="161"/>
+      <c r="F7" s="161"/>
+      <c r="G7" s="161"/>
+      <c r="H7" s="162"/>
       <c r="I7" s="62"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="103" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B8" s="104" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C8" s="105" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D8" s="105" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E8" s="105" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F8" s="104" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G8" s="106" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="I8" s="62"/>
     </row>
@@ -38155,7 +38232,7 @@
       <c r="G16" s="93"/>
       <c r="I16" s="62"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:14">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="17"/>
@@ -38165,7 +38242,7 @@
       <c r="G17" s="93"/>
       <c r="I17" s="62"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:14">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="17"/>
@@ -38175,7 +38252,7 @@
       <c r="G18" s="93"/>
       <c r="I18" s="62"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:14">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="17"/>
@@ -38185,47 +38262,47 @@
       <c r="G19" s="93"/>
       <c r="I19" s="62"/>
     </row>
-    <row r="20" spans="1:9" ht="21">
-      <c r="A20" s="160" t="s">
-        <v>81</v>
+    <row r="20" spans="1:14" ht="21">
+      <c r="A20" s="163" t="s">
+        <v>74</v>
       </c>
-      <c r="B20" s="158"/>
-      <c r="C20" s="158"/>
-      <c r="D20" s="158"/>
-      <c r="E20" s="158"/>
-      <c r="F20" s="166"/>
+      <c r="B20" s="161"/>
+      <c r="C20" s="161"/>
+      <c r="D20" s="161"/>
+      <c r="E20" s="161"/>
+      <c r="F20" s="169"/>
       <c r="G20" s="109">
         <f>SUM(G9:G19)</f>
         <v>437.3438888888889</v>
       </c>
       <c r="I20" s="62"/>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1">
       <c r="I21" s="62"/>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1">
       <c r="I22" s="62"/>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A23" s="160" t="s">
-        <v>82</v>
+    <row r="23" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A23" s="163" t="s">
+        <v>75</v>
       </c>
-      <c r="B23" s="166"/>
-      <c r="D23" s="173" t="s">
-        <v>83</v>
+      <c r="B23" s="169"/>
+      <c r="D23" s="176" t="s">
+        <v>76</v>
       </c>
-      <c r="E23" s="169"/>
+      <c r="E23" s="172"/>
       <c r="I23" s="62"/>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
       <c r="A24" s="82" t="s">
         <v>3</v>
       </c>
       <c r="B24" s="82" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D24" s="110" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E24" s="111">
         <f>FaturamentoXCustos!$D$34</f>
@@ -38233,144 +38310,172 @@
       </c>
       <c r="I24" s="62"/>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A25" s="7" t="s">
-        <v>86</v>
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A25" s="190" t="s">
+        <v>143</v>
       </c>
-      <c r="B25" s="93"/>
+      <c r="B25" s="93">
+        <f>L29</f>
+        <v>2400</v>
+      </c>
       <c r="D25" s="110" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E25" s="112">
         <f>B41</f>
-        <v>19357.343888888889</v>
+        <v>20637.343888888889</v>
       </c>
       <c r="I25" s="62"/>
-    </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A26" s="7" t="s">
-        <v>88</v>
+      <c r="K25" s="163" t="s">
+        <v>139</v>
       </c>
+      <c r="L25" s="169"/>
+    </row>
+    <row r="26" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A26" s="7"/>
       <c r="B26" s="93"/>
       <c r="I26" s="62"/>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A27" s="7" t="s">
-        <v>89</v>
+      <c r="K26" s="82" t="s">
+        <v>3</v>
       </c>
+      <c r="L26" s="82" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A27" s="7"/>
       <c r="B27" s="10"/>
       <c r="I27" s="62"/>
-    </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A28" s="7" t="s">
-        <v>90</v>
+      <c r="K27" t="s">
+        <v>137</v>
       </c>
-      <c r="B28" s="93">
-        <v>120</v>
+      <c r="L27" s="93">
+        <v>1200</v>
       </c>
+      <c r="N27" s="189" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A28" s="7"/>
+      <c r="B28" s="93"/>
       <c r="I28" s="62"/>
-    </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A29" s="7" t="s">
-        <v>91</v>
+      <c r="K28" t="s">
+        <v>138</v>
       </c>
-      <c r="B29" s="93">
-        <v>100</v>
+      <c r="L28" s="93">
+        <v>1200</v>
       </c>
+      <c r="N28" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A29" s="7"/>
+      <c r="B29" s="93"/>
       <c r="I29" s="62"/>
-    </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A30" s="7" t="s">
-        <v>92</v>
+      <c r="K29" s="113" t="s">
+        <v>6</v>
       </c>
-      <c r="B30" s="93">
-        <v>100</v>
+      <c r="L29" s="51">
+        <f>SUM(L13:L28)</f>
+        <v>2400</v>
       </c>
+    </row>
+    <row r="30" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A30" s="7"/>
+      <c r="B30" s="93"/>
       <c r="I30" s="62"/>
     </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A31" s="7" t="s">
-        <v>93</v>
+    <row r="31" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A31" s="7"/>
+      <c r="B31" s="93"/>
+      <c r="I31" s="62"/>
+      <c r="K31" s="82" t="s">
+        <v>3</v>
       </c>
-      <c r="B31" s="93">
-        <v>300</v>
+      <c r="L31" s="193" t="s">
+        <v>146</v>
       </c>
-      <c r="I31" s="62"/>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1">
+    </row>
+    <row r="32" spans="1:14" ht="15.75" customHeight="1">
       <c r="A32" s="33" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="B32" s="10">
         <f>H5</f>
         <v>12300</v>
       </c>
       <c r="I32" s="62"/>
-    </row>
-    <row r="33" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A33" s="7" t="s">
-        <v>95</v>
+      <c r="K32" t="s">
+        <v>137</v>
       </c>
+      <c r="L32" s="93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A33" s="7"/>
       <c r="B33" s="93"/>
       <c r="I33" s="62"/>
-    </row>
-    <row r="34" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A34" s="7" t="s">
-        <v>96</v>
+      <c r="K33" t="s">
+        <v>138</v>
       </c>
-      <c r="B34" s="93">
-        <v>200</v>
+      <c r="L33" s="93">
+        <v>1</v>
       </c>
+    </row>
+    <row r="34" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A34" s="7"/>
+      <c r="B34" s="93"/>
       <c r="I34" s="62"/>
-    </row>
-    <row r="35" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A35" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B35" s="93">
-        <v>300</v>
-      </c>
+      <c r="K34" s="194"/>
+      <c r="L34" s="195"/>
+    </row>
+    <row r="35" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A35" s="7"/>
+      <c r="B35" s="93"/>
       <c r="I35" s="62"/>
     </row>
-    <row r="36" spans="1:9" ht="15.75" customHeight="1">
+    <row r="36" spans="1:12" ht="15.75" customHeight="1">
       <c r="A36" s="7" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="B36" s="93">
         <v>50</v>
       </c>
       <c r="I36" s="62"/>
     </row>
-    <row r="37" spans="1:9" ht="15.75" customHeight="1">
+    <row r="37" spans="1:12" ht="15.75" customHeight="1">
       <c r="A37" s="7" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="B37" s="93">
         <v>5000</v>
       </c>
       <c r="I37" s="62"/>
     </row>
-    <row r="38" spans="1:9" ht="15.75" customHeight="1">
+    <row r="38" spans="1:12" ht="15.75" customHeight="1">
       <c r="A38" s="7" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="B38" s="93">
         <v>300</v>
       </c>
       <c r="I38" s="62"/>
     </row>
-    <row r="39" spans="1:9" ht="15.75" customHeight="1">
+    <row r="39" spans="1:12" ht="15.75" customHeight="1">
       <c r="A39" s="7" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="B39" s="93">
         <v>150</v>
       </c>
       <c r="I39" s="62"/>
     </row>
-    <row r="40" spans="1:9" ht="15.75" customHeight="1">
+    <row r="40" spans="1:12" ht="15.75" customHeight="1">
       <c r="A40" s="33" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="B40" s="93">
         <f>G20</f>
@@ -38378,35 +38483,35 @@
       </c>
       <c r="I40" s="62"/>
     </row>
-    <row r="41" spans="1:9" ht="15.75" customHeight="1">
+    <row r="41" spans="1:12" ht="15.75" customHeight="1">
       <c r="A41" s="113" t="s">
         <v>6</v>
       </c>
       <c r="B41" s="51">
         <f>SUM(B25:B40)</f>
-        <v>19357.343888888889</v>
+        <v>20637.343888888889</v>
       </c>
       <c r="I41" s="62"/>
     </row>
-    <row r="42" spans="1:9" ht="15.75" customHeight="1">
+    <row r="42" spans="1:12" ht="15.75" customHeight="1">
       <c r="I42" s="62"/>
     </row>
-    <row r="43" spans="1:9" ht="15.75" customHeight="1">
+    <row r="43" spans="1:12" ht="15.75" customHeight="1">
       <c r="I43" s="62"/>
     </row>
-    <row r="44" spans="1:9" ht="15.75" customHeight="1">
+    <row r="44" spans="1:12" ht="15.75" customHeight="1">
       <c r="I44" s="62"/>
     </row>
-    <row r="45" spans="1:9" ht="15.75" customHeight="1">
+    <row r="45" spans="1:12" ht="15.75" customHeight="1">
       <c r="I45" s="62"/>
     </row>
-    <row r="46" spans="1:9" ht="15.75" customHeight="1">
+    <row r="46" spans="1:12" ht="15.75" customHeight="1">
       <c r="I46" s="62"/>
     </row>
-    <row r="47" spans="1:9" ht="15.75" customHeight="1">
+    <row r="47" spans="1:12" ht="15.75" customHeight="1">
       <c r="I47" s="62"/>
     </row>
-    <row r="48" spans="1:9" ht="15.75" customHeight="1">
+    <row r="48" spans="1:12" ht="15.75" customHeight="1">
       <c r="I48" s="62"/>
     </row>
     <row r="49" spans="9:9" ht="15.75" customHeight="1">
@@ -41266,7 +41371,8 @@
       <c r="I1000" s="114"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="K25:L25"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="A7:H7"/>
@@ -41275,8 +41381,8 @@
     <mergeCell ref="D23:E23"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -41302,16 +41408,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21">
-      <c r="A1" s="160" t="s">
-        <v>103</v>
+      <c r="A1" s="163" t="s">
+        <v>86</v>
       </c>
-      <c r="B1" s="158"/>
-      <c r="C1" s="158"/>
-      <c r="D1" s="166"/>
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="169"/>
     </row>
     <row r="2" spans="1:8" ht="21">
       <c r="A2" s="2" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
@@ -41320,23 +41426,23 @@
         <v>18</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F2" s="115" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
-      <c r="G2" s="183">
+      <c r="G2" s="177">
         <f>C3</f>
         <v>97100</v>
       </c>
-      <c r="H2" s="172"/>
+      <c r="H2" s="175"/>
     </row>
     <row r="3" spans="1:8" ht="21">
       <c r="A3" s="116" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="B3" s="117" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="C3" s="118">
         <f>FaturamentoXCustos!D10</f>
@@ -41344,65 +41450,65 @@
       </c>
       <c r="D3" s="119"/>
       <c r="F3" s="115" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="G3" s="120">
         <f>D10</f>
-        <v>0.69260201968188573</v>
+        <v>0.67941973337910511</v>
       </c>
       <c r="H3" s="121">
         <f>C10</f>
-        <v>67251.656111111108</v>
+        <v>65971.656111111108</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="45">
       <c r="A4" s="45"/>
       <c r="B4" s="122" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
-      <c r="C4" s="184">
+      <c r="C4" s="178">
         <f>FaturamentoXCustos!D28</f>
         <v>0</v>
       </c>
       <c r="D4" s="123"/>
       <c r="F4" s="115" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="G4" s="120">
         <f>B32</f>
-        <v>0.34517334286758183</v>
+        <v>0.3257627210446592</v>
       </c>
       <c r="H4" s="124" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="39.75" customHeight="1">
       <c r="A5" s="47" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B5" s="71" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
-      <c r="C5" s="185"/>
+      <c r="C5" s="179"/>
       <c r="D5" s="125"/>
       <c r="E5" s="126"/>
       <c r="F5" s="115" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="G5" s="127">
         <f>B38</f>
-        <v>2.8970950992111462</v>
+        <v>3.0697189561567693</v>
       </c>
       <c r="H5" s="127" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="47" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="B6" s="71" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="C6" s="87">
         <f>FaturamentoXCustos!D34</f>
@@ -41413,7 +41519,7 @@
     <row r="7" spans="1:8">
       <c r="A7" s="129"/>
       <c r="B7" s="130" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C7" s="131">
         <f>SUM(C4:C6)</f>
@@ -41424,7 +41530,7 @@
     <row r="8" spans="1:8">
       <c r="A8" s="133"/>
       <c r="B8" s="84" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="C8" s="134">
         <f>C3-C7</f>
@@ -41434,29 +41540,29 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="136" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="B9" s="137" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C9" s="138">
         <f>'cont... custos'!B41</f>
-        <v>19357.343888888889</v>
+        <v>20637.343888888889</v>
       </c>
       <c r="D9" s="139"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="140"/>
       <c r="B10" s="141" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="C10" s="142">
         <f>C8-C9</f>
-        <v>67251.656111111108</v>
+        <v>65971.656111111108</v>
       </c>
       <c r="D10" s="143">
         <f>C10/C3</f>
-        <v>0.69260201968188573</v>
+        <v>0.67941973337910511</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -41466,44 +41572,44 @@
       <c r="F12" s="144"/>
     </row>
     <row r="13" spans="1:8" ht="21">
-      <c r="A13" s="181" t="s">
-        <v>122</v>
+      <c r="A13" s="180" t="s">
+        <v>105</v>
       </c>
-      <c r="B13" s="158"/>
-      <c r="C13" s="158"/>
-      <c r="D13" s="162"/>
+      <c r="B13" s="161"/>
+      <c r="C13" s="161"/>
+      <c r="D13" s="165"/>
       <c r="F13" s="144"/>
     </row>
     <row r="14" spans="1:8" ht="21">
-      <c r="A14" s="175" t="s">
-        <v>123</v>
+      <c r="A14" s="181" t="s">
+        <v>106</v>
       </c>
-      <c r="B14" s="158"/>
-      <c r="C14" s="158"/>
-      <c r="D14" s="162"/>
+      <c r="B14" s="161"/>
+      <c r="C14" s="161"/>
+      <c r="D14" s="165"/>
       <c r="F14" s="144"/>
     </row>
     <row r="15" spans="1:8" ht="21">
-      <c r="A15" s="175" t="s">
-        <v>124</v>
+      <c r="A15" s="181" t="s">
+        <v>107</v>
       </c>
-      <c r="B15" s="158"/>
-      <c r="C15" s="158"/>
-      <c r="D15" s="162"/>
+      <c r="B15" s="161"/>
+      <c r="C15" s="161"/>
+      <c r="D15" s="165"/>
       <c r="F15" s="144"/>
     </row>
     <row r="16" spans="1:8" ht="21">
-      <c r="A16" s="176" t="s">
-        <v>125</v>
+      <c r="A16" s="182" t="s">
+        <v>108</v>
       </c>
-      <c r="B16" s="177"/>
-      <c r="C16" s="177"/>
-      <c r="D16" s="178"/>
+      <c r="B16" s="183"/>
+      <c r="C16" s="183"/>
+      <c r="D16" s="184"/>
       <c r="F16" s="144"/>
     </row>
     <row r="17" spans="1:6" ht="21">
       <c r="A17" s="145" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="B17" s="146">
         <f>C8/C3</f>
@@ -41514,155 +41620,155 @@
     </row>
     <row r="18" spans="1:6" ht="21">
       <c r="A18" s="148" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="B18" s="149">
         <f>C9/B17</f>
-        <v>21702.11053829407</v>
+        <v>23137.157704292982</v>
       </c>
       <c r="C18" s="150"/>
       <c r="F18" s="79"/>
     </row>
     <row r="19" spans="1:6" ht="34.5" customHeight="1">
-      <c r="A19" s="174" t="s">
-        <v>128</v>
+      <c r="A19" s="185" t="s">
+        <v>111</v>
       </c>
-      <c r="B19" s="158"/>
-      <c r="C19" s="158"/>
-      <c r="D19" s="162"/>
+      <c r="B19" s="161"/>
+      <c r="C19" s="161"/>
+      <c r="D19" s="165"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1"/>
     <row r="22" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A22" s="181" t="s">
-        <v>108</v>
+      <c r="A22" s="180" t="s">
+        <v>91</v>
       </c>
-      <c r="B22" s="158"/>
-      <c r="C22" s="158"/>
-      <c r="D22" s="162"/>
+      <c r="B22" s="161"/>
+      <c r="C22" s="161"/>
+      <c r="D22" s="165"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A23" s="175" t="s">
-        <v>129</v>
+      <c r="A23" s="181" t="s">
+        <v>112</v>
       </c>
-      <c r="B23" s="158"/>
-      <c r="C23" s="158"/>
-      <c r="D23" s="162"/>
+      <c r="B23" s="161"/>
+      <c r="C23" s="161"/>
+      <c r="D23" s="165"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A24" s="176" t="s">
-        <v>130</v>
+      <c r="A24" s="182" t="s">
+        <v>113</v>
       </c>
-      <c r="B24" s="177"/>
-      <c r="C24" s="177"/>
-      <c r="D24" s="178"/>
+      <c r="B24" s="183"/>
+      <c r="C24" s="183"/>
+      <c r="D24" s="184"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1">
       <c r="A25" s="148" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="B25" s="151">
         <f>C10/C3</f>
-        <v>0.69260201968188573</v>
+        <v>0.67941973337910511</v>
       </c>
-      <c r="C25" s="179"/>
-      <c r="D25" s="180"/>
+      <c r="C25" s="186"/>
+      <c r="D25" s="187"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A26" s="174" t="s">
-        <v>131</v>
+      <c r="A26" s="185" t="s">
+        <v>114</v>
       </c>
-      <c r="B26" s="158"/>
-      <c r="C26" s="158"/>
-      <c r="D26" s="162"/>
+      <c r="B26" s="161"/>
+      <c r="C26" s="161"/>
+      <c r="D26" s="165"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1"/>
     <row r="28" spans="1:6" ht="15.75" customHeight="1"/>
     <row r="29" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A29" s="181" t="s">
-        <v>110</v>
+      <c r="A29" s="180" t="s">
+        <v>93</v>
       </c>
-      <c r="B29" s="158"/>
-      <c r="C29" s="158"/>
-      <c r="D29" s="162"/>
+      <c r="B29" s="161"/>
+      <c r="C29" s="161"/>
+      <c r="D29" s="165"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A30" s="175" t="s">
-        <v>132</v>
+      <c r="A30" s="181" t="s">
+        <v>115</v>
       </c>
-      <c r="B30" s="158"/>
-      <c r="C30" s="158"/>
-      <c r="D30" s="162"/>
+      <c r="B30" s="161"/>
+      <c r="C30" s="161"/>
+      <c r="D30" s="165"/>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A31" s="176" t="s">
-        <v>133</v>
+      <c r="A31" s="182" t="s">
+        <v>116</v>
       </c>
-      <c r="B31" s="177"/>
-      <c r="C31" s="177"/>
-      <c r="D31" s="178"/>
+      <c r="B31" s="183"/>
+      <c r="C31" s="183"/>
+      <c r="D31" s="184"/>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1">
       <c r="A32" s="148" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="B32" s="151">
         <f>C10/'Investimento Total'!B6</f>
-        <v>0.34517334286758183</v>
+        <v>0.3257627210446592</v>
       </c>
-      <c r="C32" s="179"/>
-      <c r="D32" s="180"/>
+      <c r="C32" s="186"/>
+      <c r="D32" s="187"/>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A33" s="174" t="s">
-        <v>134</v>
+      <c r="A33" s="185" t="s">
+        <v>117</v>
       </c>
-      <c r="B33" s="158"/>
-      <c r="C33" s="158"/>
-      <c r="D33" s="162"/>
+      <c r="B33" s="161"/>
+      <c r="C33" s="161"/>
+      <c r="D33" s="165"/>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1"/>
     <row r="35" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A35" s="181" t="s">
-        <v>135</v>
+      <c r="A35" s="180" t="s">
+        <v>118</v>
       </c>
-      <c r="B35" s="158"/>
-      <c r="C35" s="158"/>
-      <c r="D35" s="162"/>
+      <c r="B35" s="161"/>
+      <c r="C35" s="161"/>
+      <c r="D35" s="165"/>
     </row>
     <row r="36" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A36" s="175" t="s">
-        <v>136</v>
+      <c r="A36" s="181" t="s">
+        <v>119</v>
       </c>
-      <c r="B36" s="158"/>
-      <c r="C36" s="158"/>
-      <c r="D36" s="162"/>
+      <c r="B36" s="161"/>
+      <c r="C36" s="161"/>
+      <c r="D36" s="165"/>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A37" s="176" t="s">
-        <v>133</v>
+      <c r="A37" s="182" t="s">
+        <v>116</v>
       </c>
-      <c r="B37" s="177"/>
-      <c r="C37" s="177"/>
-      <c r="D37" s="178"/>
+      <c r="B37" s="183"/>
+      <c r="C37" s="183"/>
+      <c r="D37" s="184"/>
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1">
       <c r="A38" s="148" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="B38" s="152">
         <f>'Investimento Total'!B6/C10</f>
-        <v>2.8970950992111462</v>
+        <v>3.0697189561567693</v>
       </c>
-      <c r="C38" s="182"/>
-      <c r="D38" s="180"/>
+      <c r="C38" s="188"/>
+      <c r="D38" s="187"/>
     </row>
     <row r="39" spans="1:4" ht="33" customHeight="1">
-      <c r="A39" s="174" t="s">
-        <v>137</v>
+      <c r="A39" s="185" t="s">
+        <v>120</v>
       </c>
-      <c r="B39" s="158"/>
-      <c r="C39" s="158"/>
-      <c r="D39" s="162"/>
+      <c r="B39" s="161"/>
+      <c r="C39" s="161"/>
+      <c r="D39" s="165"/>
     </row>
     <row r="40" spans="1:4" ht="15.75" customHeight="1"/>
     <row r="41" spans="1:4" ht="15.75" customHeight="1"/>
@@ -42627,21 +42733,6 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="C38:D38"/>
     <mergeCell ref="A39:D39"/>
     <mergeCell ref="A30:D30"/>
     <mergeCell ref="A31:D31"/>
@@ -42650,6 +42741,21 @@
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
